--- a/test4/API.xlsx
+++ b/test4/API.xlsx
@@ -19,72 +19,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+  <x:si>
+    <x:t>사용자가 기록한 방명록을 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guestbook/update</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방명록 특정 글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuestbookDTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클래스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메소드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guestbook/selectAll</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainController.index()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Guestbook API 상세 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>seqno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guestbook/delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> - 사용자가 기록한 방명록을 저장</x:t>
+  </x:si>
   <x:si>
     <x:t>/guestbook/insert</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> -  방명록 특정 글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메소드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> - 현재 등록된 방명록 전체 데이터 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MainController.index()</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> - 첫 화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클래스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guestbook/selectAll</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Guestbook API 상세 정의서</x:t>
+    <x:t>seqno, pwd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuestbookController.update()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuestbookController.guestbookRegist()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파라미터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuestbookController.delete()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GuestbookController.insert()</x:t>
   </x:si>
   <x:si>
     <x:t>GuestbookController.selectAll()</x:t>
   </x:si>
   <x:si>
-    <x:t>GuestbookController.delete()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuestbookController.insert()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 url</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파라미터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/guestbook/delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GuestbookDTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>seqno, pwd</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> - 사용자가 기록한 방명록을 저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
+    <x:t>/guestbook/guestbookRegist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방명록 특정 글 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방명록 글 1개 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재 등록된 방명록 전체 데이터 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방명록 입력(조회), 삭제를 위한 화면요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/guestbook/selectOne</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -172,7 +202,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="10">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -224,8 +257,21 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -947,133 +993,185 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:E9"/>
+  <x:dimension ref="A1:E13"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G5" activeCellId="0" sqref="G5:G5"/>
+      <x:selection activeCell="A15" activeCellId="0" sqref="A15:A15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="17.69921875" customWidth="1"/>
-    <x:col min="3" max="3" width="32.30078125" customWidth="1"/>
-    <x:col min="4" max="4" width="15.8984375" customWidth="1"/>
-    <x:col min="5" max="5" width="29.80078125" customWidth="1"/>
+    <x:col min="1" max="1" width="26.8984375" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="32.30078125" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="15.8984375" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="38.19921875" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
-      <x:c r="A1" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B1" s="2"/>
-      <x:c r="C1" s="2"/>
-      <x:c r="D1" s="1"/>
-      <x:c r="E1" s="1"/>
+      <x:c r="A1" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B1" s="3"/>
+      <x:c r="C1" s="3"/>
+      <x:c r="D1" s="2"/>
+      <x:c r="E1" s="2"/>
     </x:row>
     <x:row r="2" spans="1:5">
-      <x:c r="A2" s="2"/>
-      <x:c r="B2" s="2"/>
-      <x:c r="C2" s="2"/>
-      <x:c r="D2" s="1"/>
-      <x:c r="E2" s="1"/>
+      <x:c r="A2" s="3"/>
+      <x:c r="B2" s="3"/>
+      <x:c r="C2" s="3"/>
+      <x:c r="D2" s="2"/>
+      <x:c r="E2" s="2"/>
     </x:row>
     <x:row r="3" spans="1:5">
-      <x:c r="A3" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
+      <x:c r="A3" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D3" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E3" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="9" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="9"/>
+      <x:c r="E4" s="9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="9" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B5" s="8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="9" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D5" s="9" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C3" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D3" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E3" s="3" t="s">
+      <x:c r="E5" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="9" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B6" s="8" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C6" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D6" s="9" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E6" s="9" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="9" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B7" s="8" t="s">
         <x:v>8</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5" ht="32.75">
-      <x:c r="A4" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C4" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D4" s="5"/>
-      <x:c r="E4" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5" ht="81.849999999999994">
-      <x:c r="A5" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C5" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D5" s="5"/>
-      <x:c r="E5" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" ht="65.5">
-      <x:c r="A6" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D6" s="5" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E6" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5" ht="49.149999999999999">
-      <x:c r="A7" s="5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B7" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C7" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D7" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E7" s="5" t="s">
-        <x:v>12</x:v>
+      <x:c r="C7" s="9" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D7" s="9"/>
+      <x:c r="E7" s="9" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
-      <x:c r="A8" s="5"/>
-      <x:c r="B8" s="4"/>
-      <x:c r="C8" s="7"/>
-      <x:c r="D8" s="5"/>
-      <x:c r="E8" s="5"/>
+      <x:c r="A8" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D8" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E8" s="9" t="s">
+        <x:v>23</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
-      <x:c r="A9" s="5"/>
-      <x:c r="B9" s="4"/>
-      <x:c r="C9" s="7"/>
-      <x:c r="D9" s="5"/>
-      <x:c r="E9" s="5"/>
+      <x:c r="A9" s="9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B9" s="8" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C9" s="9" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="9" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E9" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="9" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B10" s="8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="9" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D10" s="9" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E10" s="9"/>
+    </x:row>
+    <x:row r="13" spans="1:5" customFormat="1">
+      <x:c r="A13" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B13" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C13" s="7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D13" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E13" s="6" t="s">
+        <x:v>24</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>